--- a/level-2/codeforces-phase-2-4/codeforces-phase-2-4.xlsx
+++ b/level-2/codeforces-phase-2-4/codeforces-phase-2-4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0EEFF-9DC1-42D8-A216-93A9B871D1BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1265679F-642D-4921-938D-CEE146A825E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,249 +46,6 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/224/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/237/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/300/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/332/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/490/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/527/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/574/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/584/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/225/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/615/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/216/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/294/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/349/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/140/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/404/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/415/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/437/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/460/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/190/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/305/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/322/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/373/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/495/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/593/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/595/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/281/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/466/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/483/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/199/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/336/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/166/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/340/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/382/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/239/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/278/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/282/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/342/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/358/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/443/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/608/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/752/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/149/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/260/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/275/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/606/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/168/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/202/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/208/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/551/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/664/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/399/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/296/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/148/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/165/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/254/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/320/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/384/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/496/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/510/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/557/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/580/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/599/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/676/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/742/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/760/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/214/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/231/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/244/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/350/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/374/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/393/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/689/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/768/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/252/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/287/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/540/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/353/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/390/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/488/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/577/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/767/B</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
@@ -310,9 +67,6 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/791/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/22/B</t>
   </si>
   <si>
@@ -343,9 +97,6 @@
     <t>https://codeforces.com/problemset/problem/54/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/119/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/19/B</t>
   </si>
   <si>
@@ -358,9 +109,6 @@
     <t>https://codeforces.com/problemset/problem/2/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/50/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/75/B</t>
   </si>
   <si>
@@ -376,9 +124,6 @@
     <t>https://codeforces.com/problemset/problem/31/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/832/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/70/B</t>
   </si>
   <si>
@@ -497,6 +242,261 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/839/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/224/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/237/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/300/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/332/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/490/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/527/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/574/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/584/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/791/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/225/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/615/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/216/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/294/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/349/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/140/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/119/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/239/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/278/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/282/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/342/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/358/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/443/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/608/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/752/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/50/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/149/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/260/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/606/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/832/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/275/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/168/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/202/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/551/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/664/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/208/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/399/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/296/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/404/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/415/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/437/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/460/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/322/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/373/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/495/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/593/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/595/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/305/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/281/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/190/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/483/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/199/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/336/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/466/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/382/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/166/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/340/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/148/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/165/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/320/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/384/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/510/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/557/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/580/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/599/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/676/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/742/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/760/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/231/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/374/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/350/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/393/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/689/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/768/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/287/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/540/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/390/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/353/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/577/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/254/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/496/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/214/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/244/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/252/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/488/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/767/B</t>
   </si>
 </sst>
 </file>
@@ -747,378 +747,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <fill>
         <patternFill>
@@ -1772,25 +1401,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>2</v>
@@ -1893,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -1918,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -1943,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N6" s="12"/>
     </row>
@@ -1968,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -1993,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="N8" s="12"/>
     </row>
@@ -2018,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -2043,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N10" s="12"/>
     </row>
@@ -2068,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -2093,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="N12" s="12"/>
     </row>
@@ -2118,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -2143,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="N14" s="12"/>
     </row>
@@ -2168,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N15" s="12"/>
     </row>
@@ -2193,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N16" s="12"/>
     </row>
@@ -2218,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="N17" s="12"/>
     </row>
@@ -2243,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="N18" s="12"/>
     </row>
@@ -2268,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="N19" s="12"/>
     </row>
@@ -2293,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="N20" s="12"/>
     </row>
@@ -2318,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="N21" s="12"/>
     </row>
@@ -2343,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N22" s="12"/>
     </row>
@@ -2368,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -2393,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N24" s="12"/>
     </row>
@@ -2418,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -2443,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="N26" s="12"/>
     </row>
@@ -2468,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N27" s="12"/>
     </row>
@@ -2493,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="N28" s="12"/>
     </row>
@@ -2518,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="N29" s="12"/>
     </row>
@@ -2543,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N30" s="12"/>
     </row>
@@ -2568,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="N31" s="12"/>
     </row>
@@ -2593,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N32" s="12"/>
     </row>
@@ -2618,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N33" s="12"/>
     </row>
@@ -2643,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N34" s="12"/>
     </row>
@@ -2668,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="N35" s="12"/>
     </row>
@@ -2693,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="N36" s="12"/>
     </row>
@@ -2718,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -2743,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N38" s="12"/>
     </row>
@@ -2768,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N39" s="12"/>
     </row>
@@ -2793,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="N40" s="12"/>
     </row>
@@ -2818,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="N41" s="12"/>
     </row>
@@ -2843,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="N42" s="12"/>
     </row>
@@ -2864,11 +2493,11 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="8">
-        <f t="shared" ref="L43:L115" si="2">SUM(G43:K43)</f>
+        <f t="shared" ref="L43:L114" si="2">SUM(G43:K43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N43" s="12"/>
     </row>
@@ -2893,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="N44" s="12"/>
     </row>
@@ -2918,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N45" s="12"/>
     </row>
@@ -2943,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N46" s="12"/>
     </row>
@@ -2968,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="N47" s="12"/>
     </row>
@@ -2993,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N48" s="12"/>
     </row>
@@ -3018,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N49" s="12"/>
     </row>
@@ -3043,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="N50" s="12"/>
     </row>
@@ -3068,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="N51" s="12"/>
     </row>
@@ -3093,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="N52" s="12"/>
     </row>
@@ -3118,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N53" s="12"/>
     </row>
@@ -3143,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="N54" s="12"/>
     </row>
@@ -3168,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="N55" s="12"/>
     </row>
@@ -3193,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="N56" s="12"/>
     </row>
@@ -3218,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="N57" s="12"/>
     </row>
@@ -3243,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="N58" s="12"/>
     </row>
@@ -3268,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="N59" s="12"/>
     </row>
@@ -3293,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="N60" s="12"/>
     </row>
@@ -3318,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -3343,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="N62" s="12"/>
     </row>
@@ -3368,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N63" s="12"/>
     </row>
@@ -3393,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="N64" s="12"/>
     </row>
@@ -3418,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="N65" s="12"/>
     </row>
@@ -3443,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N66" s="12"/>
     </row>
@@ -3468,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="N67" s="12"/>
     </row>
@@ -3493,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N68" s="10"/>
     </row>
@@ -3518,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="N69" s="12"/>
     </row>
@@ -3543,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -3568,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="N71" s="12"/>
     </row>
@@ -3593,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N72" s="12"/>
     </row>
@@ -3618,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="N73" s="12"/>
     </row>
@@ -3643,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="N74" s="12"/>
     </row>
@@ -3668,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="N75" s="12"/>
     </row>
@@ -3693,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="N76" s="12"/>
     </row>
@@ -3718,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N77" s="12"/>
     </row>
@@ -3743,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -3768,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N79" s="12"/>
     </row>
@@ -3793,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="N80" s="12"/>
     </row>
@@ -3818,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="N81" s="12"/>
     </row>
@@ -3843,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="N82" s="12"/>
     </row>
@@ -3868,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -3893,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="N84" s="12"/>
     </row>
@@ -3918,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="N85" s="12"/>
     </row>
@@ -3943,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="N86" s="10"/>
     </row>
@@ -3968,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="N87" s="12"/>
     </row>
@@ -3993,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="N88" s="12"/>
     </row>
@@ -4018,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="N89" s="12"/>
     </row>
@@ -4043,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -4068,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="N91" s="10"/>
     </row>
@@ -4093,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="N92" s="12"/>
     </row>
@@ -4118,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="N93" s="12"/>
     </row>
@@ -4143,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N94" s="12"/>
     </row>
@@ -4168,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="N95" s="10"/>
     </row>
@@ -4193,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="N96" s="10"/>
     </row>
@@ -4218,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N97" s="12"/>
     </row>
@@ -4243,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="N98" s="12"/>
     </row>
@@ -4268,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="N99" s="12"/>
     </row>
@@ -4293,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="N100" s="12"/>
     </row>
@@ -4318,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="N101" s="10"/>
     </row>
@@ -4343,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="N102" s="12"/>
     </row>
@@ -4368,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N103" s="12"/>
     </row>
@@ -4393,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N104" s="12"/>
     </row>
@@ -4418,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="N105" s="12"/>
     </row>
@@ -4443,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="N106" s="12"/>
     </row>
@@ -4468,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="N107" s="12"/>
     </row>
@@ -4493,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="N108" s="12"/>
     </row>
@@ -4518,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="N109" s="12"/>
     </row>
@@ -4543,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="N110" s="12"/>
     </row>
@@ -4568,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="N111" s="12"/>
     </row>
@@ -4593,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="N112" s="12"/>
     </row>
@@ -4618,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="N113" s="12"/>
     </row>
@@ -4643,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="N114" s="12"/>
     </row>
@@ -4668,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="N115" s="12"/>
     </row>
@@ -4693,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4717,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4741,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4765,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4789,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4813,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4837,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4861,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4885,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4909,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4933,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4957,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="14" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -4981,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="14" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5005,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="14" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5029,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="14" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5053,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5077,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="14" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5101,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5125,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5149,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5173,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5197,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5221,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="14" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5245,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="14" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5269,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="14" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5293,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5317,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="14" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5341,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="14" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5361,11 +4990,11 @@
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
       <c r="L144" s="8">
-        <f t="shared" ref="L144:L148" si="6">SUM(G144:K144)</f>
+        <f t="shared" ref="L144:L147" si="6">SUM(G144:K144)</f>
         <v>0</v>
       </c>
       <c r="M144" s="14" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5389,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="14" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5413,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -5437,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -5696,366 +5325,252 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:A1048576">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A49">
-    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46">
-    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47">
-    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48">
-    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49">
-    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51:M80">
-    <cfRule type="cellIs" dxfId="92" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81">
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="90" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84">
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85">
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86">
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M87">
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88">
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M89">
-    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90">
-    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91">
-    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M92">
-    <cfRule type="cellIs" dxfId="80" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93">
-    <cfRule type="cellIs" dxfId="79" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94">
-    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96">
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M97">
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98">
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99">
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100">
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M101">
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M102">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M104">
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105">
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106">
-    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M107">
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108">
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109">
-    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112">
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M113">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A122">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:A147">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:M147">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116:M147">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="M26" r:id="rId1" display="http://codeforces.com/problemset/problem/349/B" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M53" r:id="rId2" display="http://codeforces.com/problemset/problem/534/B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" display="http://codeforces.com/problemset/problem/602/B" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M5" r:id="rId4" display="http://codeforces.com/problemset/problem/659/B" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M38" r:id="rId5" display="http://codeforces.com/problemset/problem/518/B" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M14" r:id="rId6" display="http://codeforces.com/problemset/problem/445/B" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M29" r:id="rId7" display="http://codeforces.com/problemset/problem/697/B" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M34" r:id="rId8" display="http://codeforces.com/problemset/problem/282/B" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M86" r:id="rId9" display="http://codeforces.com/problemset/problem/165/B" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M67" r:id="rId10" display="http://codeforces.com/problemset/problem/322/B" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M16" r:id="rId11" display="http://codeforces.com/problemset/problem/505/B" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M81" r:id="rId12" display="http://codeforces.com/problemset/problem/614/B" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M20" r:id="rId13" display="http://codeforces.com/problemset/problem/574/B" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M94" r:id="rId14" display="http://codeforces.com/problemset/problem/676/B" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M107" r:id="rId15" display="http://codeforces.com/problemset/problem/577/B" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M15" r:id="rId16" display="http://codeforces.com/problemset/problem/490/B" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M110" r:id="rId17" display="http://codeforces.com/problemset/problem/496/B" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M39" r:id="rId18" display="http://codeforces.com/problemset/problem/608/B" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M93" r:id="rId19" display="http://codeforces.com/problemset/problem/599/B" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M13" r:id="rId20" display="http://codeforces.com/problemset/problem/435/B" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M69" r:id="rId21" display="http://codeforces.com/problemset/problem/495/B" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M12" r:id="rId22" display="http://codeforces.com/problemset/problem/369/B" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M104" r:id="rId23" display="http://codeforces.com/problemset/problem/540/B" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M10" r:id="rId24" display="http://codeforces.com/problemset/problem/332/B" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M62" r:id="rId25" display="http://codeforces.com/problemset/problem/437/B" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M101" r:id="rId26" display="http://codeforces.com/problemset/problem/689/B" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M23" r:id="rId27" display="http://codeforces.com/problemset/problem/615/B" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M87" r:id="rId28" display="http://codeforces.com/problemset/problem/320/B" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M17" r:id="rId29" display="http://codeforces.com/problemset/problem/527/B" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M84" r:id="rId30" display="http://codeforces.com/problemset/problem/745/B" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M49" r:id="rId31" display="http://codeforces.com/problemset/problem/664/B" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M108" r:id="rId32" display="http://codeforces.com/problemset/problem/233/B" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M61" r:id="rId33" display="http://codeforces.com/problemset/problem/415/B" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M96" r:id="rId34" display="http://codeforces.com/problemset/problem/760/B" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M9" r:id="rId35" display="http://codeforces.com/problemset/problem/300/B" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M105" r:id="rId36" display="http://codeforces.com/problemset/problem/353/B" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M37" r:id="rId37" display="http://codeforces.com/problemset/problem/443/B" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M82" r:id="rId38" display="http://codeforces.com/problemset/problem/673/B" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M7" r:id="rId39" display="http://codeforces.com/problemset/problem/224/B" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M27" r:id="rId40" display="http://codeforces.com/problemset/problem/140/B" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M59" r:id="rId41" display="http://codeforces.com/problemset/problem/219/B" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M71" r:id="rId42" display="http://codeforces.com/problemset/problem/595/B" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M74" r:id="rId43" display="http://codeforces.com/problemset/problem/483/B" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M43" r:id="rId44" display="http://codeforces.com/problemset/problem/275/B" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M11" r:id="rId45" display="http://codeforces.com/problemset/problem/334/B" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M44" r:id="rId46" display="http://codeforces.com/problemset/problem/606/B" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M47" r:id="rId47" display="http://codeforces.com/problemset/problem/208/B" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M78" r:id="rId48" display="http://codeforces.com/problemset/problem/340/B" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M92" r:id="rId49" display="http://codeforces.com/problemset/problem/580/B" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M88" r:id="rId50" display="http://codeforces.com/problemset/problem/384/B" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M25" r:id="rId51" display="http://codeforces.com/problemset/problem/294/B" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M97" r:id="rId52" display="http://codeforces.com/problemset/problem/231/B" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M111" r:id="rId53" display="http://codeforces.com/problemset/problem/214/B" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M35" r:id="rId54" display="http://codeforces.com/problemset/problem/342/B" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M103" r:id="rId55" display="http://codeforces.com/problemset/problem/287/B" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M22" r:id="rId56" display="http://codeforces.com/problemset/problem/225/B" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M73" r:id="rId57" display="http://codeforces.com/problemset/problem/466/B" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M60" r:id="rId58" display="http://codeforces.com/problemset/problem/404/B" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M85" r:id="rId59" display="http://codeforces.com/problemset/problem/148/B" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M65" r:id="rId60" display="http://codeforces.com/problemset/problem/190/B" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M70" r:id="rId61" display="http://codeforces.com/problemset/problem/593/B" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M98" r:id="rId62" display="http://codeforces.com/problemset/problem/350/B" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M36" r:id="rId63" display="http://codeforces.com/problemset/problem/358/B" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M48" r:id="rId64" display="http://codeforces.com/problemset/problem/551/B" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M33" r:id="rId65" display="http://codeforces.com/problemset/problem/278/B" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M42" r:id="rId66" display="http://codeforces.com/problemset/problem/260/B" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M52" r:id="rId67" display="http://codeforces.com/problemset/problem/520/B" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M54" r:id="rId68" display="http://codeforces.com/problemset/problem/538/B" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="M55" r:id="rId69" display="http://codeforces.com/problemset/problem/588/B" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="M6" r:id="rId70" display="http://codeforces.com/problemset/problem/711/B" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="M30" r:id="rId71" display="http://codeforces.com/problemset/problem/716/B" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="M28" r:id="rId72" display="http://codeforces.com/problemset/problem/448/B" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M19" r:id="rId73" display="http://codeforces.com/problemset/problem/550/B" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M21" r:id="rId74" display="http://codeforces.com/problemset/problem/584/B" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M31" r:id="rId75" display="http://codeforces.com/problemset/problem/719/B" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M63" r:id="rId76" display="http://codeforces.com/problemset/problem/460/B" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="M90" r:id="rId77" display="http://codeforces.com/problemset/problem/510/B" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M95" r:id="rId78" display="http://codeforces.com/problemset/problem/742/B" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="M56" r:id="rId79" display="http://codeforces.com/problemset/problem/677/B" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="M83" r:id="rId80" display="http://codeforces.com/problemset/problem/699/B" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="M64" r:id="rId81" display="http://codeforces.com/problemset/problem/675/B" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="M91" r:id="rId82" display="http://codeforces.com/problemset/problem/557/B" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M89" r:id="rId83" display="http://codeforces.com/problemset/problem/493/B" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="M18" r:id="rId84" display="http://codeforces.com/problemset/problem/525/B" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="M57" r:id="rId85" display="http://codeforces.com/problemset/problem/703/B" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M41" r:id="rId86" display="http://codeforces.com/problemset/problem/149/B" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="M77" r:id="rId87" display="http://codeforces.com/problemset/problem/166/B" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="M45" r:id="rId88" display="http://codeforces.com/problemset/problem/168/B" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="M80" r:id="rId89" display="http://codeforces.com/problemset/problem/180/B" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="M75" r:id="rId90" display="http://codeforces.com/problemset/problem/199/B" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="M24" r:id="rId91" display="http://codeforces.com/problemset/problem/216/B" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="M46" r:id="rId92" display="http://codeforces.com/problemset/problem/202/B" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="M8" r:id="rId93" display="http://codeforces.com/problemset/problem/237/B" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M32" r:id="rId94" display="http://codeforces.com/problemset/problem/239/B" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="M112" r:id="rId95" display="http://codeforces.com/problemset/problem/244/B" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="M72" r:id="rId96" display="http://codeforces.com/problemset/problem/281/B" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="M51" r:id="rId97" display="http://codeforces.com/problemset/problem/296/B" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="M113" r:id="rId98" display="http://codeforces.com/problemset/problem/252/B" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="M109" r:id="rId99" display="http://codeforces.com/problemset/problem/254/B" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="M66" r:id="rId100" display="http://codeforces.com/problemset/problem/305/B" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="M76" r:id="rId101" display="http://codeforces.com/problemset/problem/336/B" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="M79" r:id="rId102" display="http://codeforces.com/problemset/problem/382/B" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="M68" r:id="rId103" display="http://codeforces.com/problemset/problem/373/B" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="M99" r:id="rId104" display="http://codeforces.com/problemset/problem/374/B" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="M106" r:id="rId105" display="http://codeforces.com/problemset/problem/390/B" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="M100" r:id="rId106" display="http://codeforces.com/problemset/problem/393/B" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="M50" r:id="rId107" display="http://codeforces.com/problemset/problem/399/B" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="M114" r:id="rId108" display="http://codeforces.com/problemset/problem/488/B" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="M40" r:id="rId109" display="http://codeforces.com/problemset/problem/752/B" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="M58" r:id="rId110" display="http://codeforces.com/problemset/problem/757/B" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="M115" r:id="rId111" display="http://codeforces.com/problemset/problem/767/B" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="M102" r:id="rId112" display="http://codeforces.com/problemset/problem/768/B" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId113"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="L108:L115 L133:L147" formulaRange="1"/>
   </ignoredErrors>
